--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-张福宗.xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-张福宗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017第X周" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <r>
       <t>实施周数据</t>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>公司值班</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>麻十七重庆火锅(松江店)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -456,6 +452,18 @@
   </si>
   <si>
     <t>张铭</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是你(松江店)上线</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼得家牧场(悦方店)上线</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼得家牧场(悦方店)驻店</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -947,18 +955,6 @@
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,6 +978,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1275,36 +1283,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="40" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -1367,31 +1375,31 @@
       <c r="K4" s="21">
         <v>0</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1403,10 +1411,10 @@
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
@@ -1414,10 +1422,10 @@
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
@@ -1425,10 +1433,10 @@
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
@@ -1436,10 +1444,10 @@
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
@@ -1447,10 +1455,10 @@
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
@@ -1458,10 +1466,10 @@
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
@@ -1469,10 +1477,10 @@
       <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
@@ -1480,10 +1488,10 @@
       <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
@@ -1491,10 +1499,10 @@
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
@@ -1502,10 +1510,10 @@
       <c r="A16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
@@ -1513,10 +1521,10 @@
       <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
@@ -1524,25 +1532,15 @@
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1551,6 +1549,16 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -1656,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -2021,10 +2029,10 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>31</v>
@@ -2033,7 +2041,7 @@
         <v>76102879</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
@@ -2045,16 +2053,16 @@
         <v>15638133617</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="O9" s="1">
         <v>18721161503</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>47</v>
@@ -2074,10 +2082,10 @@
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>31</v>
@@ -2086,7 +2094,7 @@
         <v>76109936</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
@@ -2098,16 +2106,16 @@
         <v>15638133617</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="O10" s="1">
         <v>15365846076</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>47</v>
@@ -2127,10 +2135,10 @@
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>31</v>
@@ -2139,7 +2147,7 @@
         <v>76108850</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
@@ -2151,16 +2159,16 @@
         <v>15638133617</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O11" s="1">
         <v>13311959119</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>47</v>
@@ -2180,10 +2188,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>31</v>
@@ -2192,7 +2200,7 @@
         <v>76107310</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
@@ -2213,7 +2221,7 @@
         <v>18016478520</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>47</v>
@@ -6904,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -6932,21 +6940,33 @@
         <v>39</v>
       </c>
       <c r="B2" s="28">
-        <v>43022</v>
+        <v>43057</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28">
+        <v>43064</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="28">
+        <v>43065</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1">
       <c r="A5" s="27"/>

--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-张福宗.xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-张福宗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2017第X周" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
   <si>
     <r>
       <t>实施周数据</t>
@@ -464,6 +464,50 @@
   </si>
   <si>
     <t>彼得家牧场(悦方店)驻店</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海摩提工房食品有限公司 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海摩提工房</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B班炸鸡(合肥商之都)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B班炸鸡(南京夫子庙店)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B班炸鸡(南京仙林店)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B班美食</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品牌</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝夜</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻十七重庆火锅(松江店)驻店</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨松铁板料理单店库存培训</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -955,6 +999,18 @@
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,18 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1269,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1283,36 +1327,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -1375,31 +1419,31 @@
       <c r="K4" s="21">
         <v>0</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1411,10 +1455,10 @@
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
@@ -1422,10 +1466,10 @@
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
@@ -1433,10 +1477,10 @@
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
@@ -1444,10 +1488,10 @@
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
@@ -1455,10 +1499,10 @@
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
@@ -1466,10 +1510,10 @@
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
@@ -1477,10 +1521,10 @@
       <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
@@ -1488,10 +1532,10 @@
       <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
@@ -1499,10 +1543,10 @@
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
@@ -1510,10 +1554,10 @@
       <c r="A16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
@@ -1521,10 +1565,10 @@
       <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
@@ -1532,15 +1576,25 @@
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1549,16 +1603,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1036"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2015,7 +2059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2228,28 +2272,216 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="6"/>
-      <c r="C13" s="22"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>48</v>
+      </c>
+      <c r="C13" s="22">
+        <v>43068</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1">
+        <v>76103788</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15638133617</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>18116231286</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="B14" s="6"/>
-      <c r="C14" s="22"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>48</v>
+      </c>
+      <c r="C14" s="22">
+        <v>43068</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1">
+        <v>76095975</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1">
+        <v>15638133617</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>18116231286</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="B15" s="6"/>
-      <c r="C15" s="22"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>48</v>
+      </c>
+      <c r="C15" s="22">
+        <v>43068</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76097922</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1">
+        <v>15638133617</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>18116231286</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="B16" s="6"/>
-      <c r="C16" s="22"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
+        <v>48</v>
+      </c>
+      <c r="C16" s="22">
+        <v>43068</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1">
+        <v>76107121</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15638133617</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>18116231286</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="6"/>
@@ -2274,6 +2506,34 @@
       <c r="C20" s="22"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="6"/>
@@ -6898,7 +7158,7 @@
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C1048576 C1:C20">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D20 D28:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D1048576 D1:D20">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6912,8 +7172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -6940,10 +7200,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="28">
-        <v>43057</v>
+        <v>43043</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1">
@@ -6951,10 +7211,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="28">
-        <v>43064</v>
+        <v>43051</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
@@ -6962,21 +7222,33 @@
         <v>39</v>
       </c>
       <c r="B4" s="28">
+        <v>43057</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="28">
+        <v>43064</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="28">
         <v>43065</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C6" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1">
       <c r="A7" s="29"/>
